--- a/backend/股票603259_杜邦分析全量数据.xlsx
+++ b/backend/股票603259_杜邦分析全量数据.xlsx
@@ -618,7 +618,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1,207,551.30万</t>
+          <t>120.76</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>856,088.26万</t>
+          <t>85.61</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>367,196.10万</t>
+          <t>36.72</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -954,7 +954,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>945,030.84万</t>
+          <t>94.50</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>653,293.47万</t>
+          <t>65.33</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>423,982.20万</t>
+          <t>42.40</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>194,221.07万</t>
+          <t>19.42</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>960,674.91万</t>
+          <t>96.07</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>807,640.72万</t>
+          <t>80.76</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>531,311.97万</t>
+          <t>53.13</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
